--- a/INTLINE/data/144/SCB/FM0001FinansBKv.xlsx
+++ b/INTLINE/data/144/SCB/FM0001FinansBKv.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="190">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="191">
   <x:si>
     <x:t>Balance of Payments. Financial account. Transactions, SEK billions by type of investment, item and quarter</x:t>
   </x:si>
@@ -499,6 +499,9 @@
     <x:t>2021K4</x:t>
   </x:si>
   <x:si>
+    <x:t>2022K1</x:t>
+  </x:si>
+  <x:si>
     <x:t>net</x:t>
   </x:si>
   <x:si>
@@ -523,7 +526,7 @@
     <x:t>Latest update:</x:t>
   </x:si>
   <x:si>
-    <x:t>20220304 08:00</x:t>
+    <x:t>20220607 08:00</x:t>
   </x:si>
   <x:si>
     <x:t>Source:</x:t>
@@ -976,21 +979,21 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:FF53"/>
+  <x:dimension ref="A1:FG53"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="162" width="9.140625" style="0" customWidth="1"/>
+    <x:col min="1" max="163" width="9.140625" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
-    <x:row r="1" spans="1:162">
+    <x:row r="1" spans="1:163">
       <x:c r="A1" s="1" t="s">
         <x:v>0</x:v>
       </x:c>
     </x:row>
-    <x:row r="3" spans="1:162">
+    <x:row r="3" spans="1:163">
       <x:c r="C3" s="2" t="s">
         <x:v>1</x:v>
       </x:c>
@@ -1471,13 +1474,16 @@
       <x:c r="FF3" s="2" t="s">
         <x:v>160</x:v>
       </x:c>
+      <x:c r="FG3" s="2" t="s">
+        <x:v>161</x:v>
+      </x:c>
     </x:row>
-    <x:row r="4" spans="1:162">
+    <x:row r="4" spans="1:163">
       <x:c r="A4" s="2" t="s">
-        <x:v>161</x:v>
+        <x:v>162</x:v>
       </x:c>
       <x:c r="B4" s="2" t="s">
-        <x:v>162</x:v>
+        <x:v>163</x:v>
       </x:c>
       <x:c r="C4" s="3" t="n">
         <x:v>-1.5</x:v>
@@ -1924,7 +1930,7 @@
         <x:v>162</x:v>
       </x:c>
       <x:c r="EU4" s="3" t="n">
-        <x:v>-67.7</x:v>
+        <x:v>-67.5</x:v>
       </x:c>
       <x:c r="EV4" s="3" t="n">
         <x:v>62.6</x:v>
@@ -1933,10 +1939,10 @@
         <x:v>130.2</x:v>
       </x:c>
       <x:c r="EX4" s="3" t="n">
-        <x:v>102</x:v>
+        <x:v>102.1</x:v>
       </x:c>
       <x:c r="EY4" s="3" t="n">
-        <x:v>64.6</x:v>
+        <x:v>64.8</x:v>
       </x:c>
       <x:c r="EZ4" s="3" t="n">
         <x:v>86.6</x:v>
@@ -1945,24 +1951,27 @@
         <x:v>-43.9</x:v>
       </x:c>
       <x:c r="FB4" s="3" t="n">
-        <x:v>76.4</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="FC4" s="3" t="n">
-        <x:v>79.7</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="FD4" s="3" t="n">
-        <x:v>191.7</x:v>
+        <x:v>211.6</x:v>
       </x:c>
       <x:c r="FE4" s="3" t="n">
-        <x:v>43.4</x:v>
+        <x:v>51.2</x:v>
       </x:c>
       <x:c r="FF4" s="3" t="n">
-        <x:v>-197.7</x:v>
+        <x:v>-27.3</x:v>
+      </x:c>
+      <x:c r="FG4" s="3" t="n">
+        <x:v>157.4</x:v>
       </x:c>
     </x:row>
-    <x:row r="5" spans="1:162">
+    <x:row r="5" spans="1:163">
       <x:c r="B5" s="2" t="s">
-        <x:v>163</x:v>
+        <x:v>164</x:v>
       </x:c>
       <x:c r="C5" s="3" t="n">
         <x:v>0.7</x:v>
@@ -2424,30 +2433,33 @@
         <x:v>30.3</x:v>
       </x:c>
       <x:c r="EZ5" s="3" t="n">
-        <x:v>8.6</x:v>
+        <x:v>8.5</x:v>
       </x:c>
       <x:c r="FA5" s="3" t="n">
-        <x:v>-21.4</x:v>
+        <x:v>-21.5</x:v>
       </x:c>
       <x:c r="FB5" s="3" t="n">
         <x:v>27.5</x:v>
       </x:c>
       <x:c r="FC5" s="3" t="n">
-        <x:v>-30.7</x:v>
+        <x:v>-35.8</x:v>
       </x:c>
       <x:c r="FD5" s="3" t="n">
-        <x:v>-51.9</x:v>
+        <x:v>-42.9</x:v>
       </x:c>
       <x:c r="FE5" s="3" t="n">
-        <x:v>-3.8</x:v>
+        <x:v>-4.2</x:v>
       </x:c>
       <x:c r="FF5" s="3" t="n">
-        <x:v>29.6</x:v>
+        <x:v>48.2</x:v>
+      </x:c>
+      <x:c r="FG5" s="3" t="n">
+        <x:v>119.6</x:v>
       </x:c>
     </x:row>
-    <x:row r="6" spans="1:162">
+    <x:row r="6" spans="1:163">
       <x:c r="B6" s="2" t="s">
-        <x:v>164</x:v>
+        <x:v>165</x:v>
       </x:c>
       <x:c r="C6" s="3" t="n">
         <x:v>0</x:v>
@@ -2918,24 +2930,27 @@
         <x:v>116.8</x:v>
       </x:c>
       <x:c r="FC6" s="3" t="n">
-        <x:v>152.1</x:v>
+        <x:v>173.3</x:v>
       </x:c>
       <x:c r="FD6" s="3" t="n">
-        <x:v>129.8</x:v>
+        <x:v>140.4</x:v>
       </x:c>
       <x:c r="FE6" s="3" t="n">
-        <x:v>-37.5</x:v>
+        <x:v>-33.4</x:v>
       </x:c>
       <x:c r="FF6" s="3" t="n">
-        <x:v>160</x:v>
+        <x:v>277.1</x:v>
+      </x:c>
+      <x:c r="FG6" s="3" t="n">
+        <x:v>-147.1</x:v>
       </x:c>
     </x:row>
-    <x:row r="7" spans="1:162">
+    <x:row r="7" spans="1:163">
       <x:c r="A7" s="2" t="s">
-        <x:v>165</x:v>
+        <x:v>166</x:v>
       </x:c>
       <x:c r="B7" s="2" t="s">
-        <x:v>162</x:v>
+        <x:v>163</x:v>
       </x:c>
       <x:c r="C7" s="3" t="n">
         <x:v>1.7</x:v>
@@ -3382,7 +3397,7 @@
         <x:v>-177.2</x:v>
       </x:c>
       <x:c r="EU7" s="3" t="n">
-        <x:v>-98.6</x:v>
+        <x:v>-98.4</x:v>
       </x:c>
       <x:c r="EV7" s="3" t="n">
         <x:v>-305.5</x:v>
@@ -3394,33 +3409,36 @@
         <x:v>-509.9</x:v>
       </x:c>
       <x:c r="EY7" s="3" t="n">
-        <x:v>11.6</x:v>
+        <x:v>14.7</x:v>
       </x:c>
       <x:c r="EZ7" s="3" t="n">
-        <x:v>-480.6</x:v>
+        <x:v>-480.4</x:v>
       </x:c>
       <x:c r="FA7" s="3" t="n">
-        <x:v>-322</x:v>
+        <x:v>-321.8</x:v>
       </x:c>
       <x:c r="FB7" s="3" t="n">
-        <x:v>-528.7</x:v>
+        <x:v>-528.5</x:v>
       </x:c>
       <x:c r="FC7" s="3" t="n">
-        <x:v>-19.5</x:v>
+        <x:v>-21.2</x:v>
       </x:c>
       <x:c r="FD7" s="3" t="n">
-        <x:v>-71.4</x:v>
+        <x:v>-71.3</x:v>
       </x:c>
       <x:c r="FE7" s="3" t="n">
-        <x:v>-131.7</x:v>
+        <x:v>-125.4</x:v>
       </x:c>
       <x:c r="FF7" s="3" t="n">
-        <x:v>-1077.4</x:v>
+        <x:v>-983.3</x:v>
+      </x:c>
+      <x:c r="FG7" s="3" t="n">
+        <x:v>-134.2</x:v>
       </x:c>
     </x:row>
-    <x:row r="8" spans="1:162">
+    <x:row r="8" spans="1:163">
       <x:c r="B8" s="2" t="s">
-        <x:v>163</x:v>
+        <x:v>164</x:v>
       </x:c>
       <x:c r="C8" s="3" t="n">
         <x:v>1.3</x:v>
@@ -3873,39 +3891,42 @@
         <x:v>67.2</x:v>
       </x:c>
       <x:c r="EW8" s="3" t="n">
-        <x:v>34.2</x:v>
+        <x:v>34.1</x:v>
       </x:c>
       <x:c r="EX8" s="3" t="n">
         <x:v>-35.4</x:v>
       </x:c>
       <x:c r="EY8" s="3" t="n">
-        <x:v>223.6</x:v>
+        <x:v>226.5</x:v>
       </x:c>
       <x:c r="EZ8" s="3" t="n">
-        <x:v>-2.1</x:v>
+        <x:v>-1.9</x:v>
       </x:c>
       <x:c r="FA8" s="3" t="n">
-        <x:v>15.6</x:v>
+        <x:v>15.8</x:v>
       </x:c>
       <x:c r="FB8" s="3" t="n">
-        <x:v>-19</x:v>
+        <x:v>-19.4</x:v>
       </x:c>
       <x:c r="FC8" s="3" t="n">
-        <x:v>35.4</x:v>
+        <x:v>30.2</x:v>
       </x:c>
       <x:c r="FD8" s="3" t="n">
-        <x:v>25.2</x:v>
+        <x:v>23.2</x:v>
       </x:c>
       <x:c r="FE8" s="3" t="n">
-        <x:v>17.9</x:v>
+        <x:v>17.3</x:v>
       </x:c>
       <x:c r="FF8" s="3" t="n">
-        <x:v>96.1</x:v>
+        <x:v>114.4</x:v>
+      </x:c>
+      <x:c r="FG8" s="3" t="n">
+        <x:v>163.4</x:v>
       </x:c>
     </x:row>
-    <x:row r="9" spans="1:162">
+    <x:row r="9" spans="1:163">
       <x:c r="B9" s="2" t="s">
-        <x:v>164</x:v>
+        <x:v>165</x:v>
       </x:c>
       <x:c r="C9" s="3" t="n">
         <x:v>0.1</x:v>
@@ -4376,24 +4397,27 @@
         <x:v>109.9</x:v>
       </x:c>
       <x:c r="FC9" s="3" t="n">
-        <x:v>167.5</x:v>
+        <x:v>169</x:v>
       </x:c>
       <x:c r="FD9" s="3" t="n">
-        <x:v>146</x:v>
+        <x:v>147.2</x:v>
       </x:c>
       <x:c r="FE9" s="3" t="n">
-        <x:v>28.1</x:v>
+        <x:v>32.9</x:v>
       </x:c>
       <x:c r="FF9" s="3" t="n">
-        <x:v>-70.8</x:v>
+        <x:v>-11</x:v>
+      </x:c>
+      <x:c r="FG9" s="3" t="n">
+        <x:v>-96.5</x:v>
       </x:c>
     </x:row>
-    <x:row r="10" spans="1:162">
+    <x:row r="10" spans="1:163">
       <x:c r="A10" s="2" t="s">
-        <x:v>166</x:v>
+        <x:v>167</x:v>
       </x:c>
       <x:c r="B10" s="2" t="s">
-        <x:v>162</x:v>
+        <x:v>163</x:v>
       </x:c>
       <x:c r="C10" s="3" t="n">
         <x:v>3.2</x:v>
@@ -4852,33 +4876,36 @@
         <x:v>-611.9</x:v>
       </x:c>
       <x:c r="EY10" s="3" t="n">
-        <x:v>-53</x:v>
+        <x:v>-50.1</x:v>
       </x:c>
       <x:c r="EZ10" s="3" t="n">
-        <x:v>-567.2</x:v>
+        <x:v>-567</x:v>
       </x:c>
       <x:c r="FA10" s="3" t="n">
-        <x:v>-278.1</x:v>
+        <x:v>-277.9</x:v>
       </x:c>
       <x:c r="FB10" s="3" t="n">
-        <x:v>-605.1</x:v>
+        <x:v>-605.4</x:v>
       </x:c>
       <x:c r="FC10" s="3" t="n">
-        <x:v>-99.2</x:v>
+        <x:v>-120.3</x:v>
       </x:c>
       <x:c r="FD10" s="3" t="n">
-        <x:v>-263.1</x:v>
+        <x:v>-282.8</x:v>
       </x:c>
       <x:c r="FE10" s="3" t="n">
-        <x:v>-175.1</x:v>
+        <x:v>-176.6</x:v>
       </x:c>
       <x:c r="FF10" s="3" t="n">
-        <x:v>-879.6</x:v>
+        <x:v>-956</x:v>
+      </x:c>
+      <x:c r="FG10" s="3" t="n">
+        <x:v>-291.7</x:v>
       </x:c>
     </x:row>
-    <x:row r="11" spans="1:162">
+    <x:row r="11" spans="1:163">
       <x:c r="B11" s="2" t="s">
-        <x:v>163</x:v>
+        <x:v>164</x:v>
       </x:c>
       <x:c r="C11" s="3" t="n">
         <x:v>0.7</x:v>
@@ -5337,33 +5364,36 @@
         <x:v>7.2</x:v>
       </x:c>
       <x:c r="EY11" s="3" t="n">
-        <x:v>193.3</x:v>
+        <x:v>196.2</x:v>
       </x:c>
       <x:c r="EZ11" s="3" t="n">
-        <x:v>-10.7</x:v>
+        <x:v>-10.4</x:v>
       </x:c>
       <x:c r="FA11" s="3" t="n">
-        <x:v>37.1</x:v>
+        <x:v>37.3</x:v>
       </x:c>
       <x:c r="FB11" s="3" t="n">
-        <x:v>-46.5</x:v>
+        <x:v>-46.8</x:v>
       </x:c>
       <x:c r="FC11" s="3" t="n">
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="FD11" s="3" t="n">
         <x:v>66.1</x:v>
-      </x:c>
-      <x:c r="FD11" s="3" t="n">
-        <x:v>77.1</x:v>
       </x:c>
       <x:c r="FE11" s="3" t="n">
         <x:v>21.6</x:v>
       </x:c>
       <x:c r="FF11" s="3" t="n">
-        <x:v>66.5</x:v>
+        <x:v>66.2</x:v>
+      </x:c>
+      <x:c r="FG11" s="3" t="n">
+        <x:v>43.8</x:v>
       </x:c>
     </x:row>
-    <x:row r="12" spans="1:162">
+    <x:row r="12" spans="1:163">
       <x:c r="B12" s="2" t="s">
-        <x:v>164</x:v>
+        <x:v>165</x:v>
       </x:c>
       <x:c r="C12" s="3" t="n">
         <x:v>0</x:v>
@@ -5834,136 +5864,139 @@
         <x:v>-6.8</x:v>
       </x:c>
       <x:c r="FC12" s="3" t="n">
-        <x:v>15.3</x:v>
+        <x:v>-4.3</x:v>
       </x:c>
       <x:c r="FD12" s="3" t="n">
-        <x:v>16.2</x:v>
+        <x:v>6.7</x:v>
       </x:c>
       <x:c r="FE12" s="3" t="n">
-        <x:v>65.6</x:v>
+        <x:v>66.3</x:v>
       </x:c>
       <x:c r="FF12" s="3" t="n">
-        <x:v>-230.7</x:v>
+        <x:v>-288.2</x:v>
+      </x:c>
+      <x:c r="FG12" s="3" t="n">
+        <x:v>50.5</x:v>
       </x:c>
     </x:row>
-    <x:row r="14" spans="1:162">
+    <x:row r="14" spans="1:163">
       <x:c r="A14" s="4" t="s">
-        <x:v>167</x:v>
+        <x:v>168</x:v>
       </x:c>
     </x:row>
-    <x:row r="16" spans="1:162">
+    <x:row r="16" spans="1:163">
       <x:c r="A16" s="0" t="s">
-        <x:v>168</x:v>
+        <x:v>169</x:v>
       </x:c>
     </x:row>
-    <x:row r="17" spans="1:162">
+    <x:row r="17" spans="1:163">
       <x:c r="A17" s="0" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
     </x:row>
-    <x:row r="19" spans="1:162">
+    <x:row r="19" spans="1:163">
       <x:c r="A19" s="0" t="s">
-        <x:v>170</x:v>
+        <x:v>171</x:v>
       </x:c>
     </x:row>
-    <x:row r="20" spans="1:162">
+    <x:row r="20" spans="1:163">
       <x:c r="A20" s="0" t="s">
-        <x:v>171</x:v>
+        <x:v>172</x:v>
       </x:c>
     </x:row>
-    <x:row r="22" spans="1:162">
+    <x:row r="22" spans="1:163">
       <x:c r="A22" s="0" t="s">
-        <x:v>172</x:v>
+        <x:v>173</x:v>
       </x:c>
     </x:row>
-    <x:row r="23" spans="1:162">
+    <x:row r="23" spans="1:163">
       <x:c r="A23" s="0" t="s">
-        <x:v>173</x:v>
+        <x:v>174</x:v>
       </x:c>
     </x:row>
-    <x:row r="24" spans="1:162">
+    <x:row r="24" spans="1:163">
       <x:c r="A24" s="0" t="s">
-        <x:v>174</x:v>
+        <x:v>175</x:v>
       </x:c>
     </x:row>
-    <x:row r="25" spans="1:162">
+    <x:row r="25" spans="1:163">
       <x:c r="A25" s="0" t="s">
-        <x:v>175</x:v>
+        <x:v>176</x:v>
       </x:c>
     </x:row>
-    <x:row r="27" spans="1:162">
+    <x:row r="27" spans="1:163">
       <x:c r="A27" s="0" t="s">
-        <x:v>176</x:v>
+        <x:v>177</x:v>
       </x:c>
     </x:row>
-    <x:row r="28" spans="1:162">
+    <x:row r="28" spans="1:163">
       <x:c r="A28" s="0" t="s">
-        <x:v>177</x:v>
+        <x:v>178</x:v>
       </x:c>
     </x:row>
-    <x:row r="29" spans="1:162">
+    <x:row r="29" spans="1:163">
       <x:c r="A29" s="0" t="s">
-        <x:v>178</x:v>
+        <x:v>179</x:v>
       </x:c>
     </x:row>
-    <x:row r="31" spans="1:162">
+    <x:row r="31" spans="1:163">
       <x:c r="A31" s="0" t="s">
-        <x:v>179</x:v>
+        <x:v>180</x:v>
       </x:c>
     </x:row>
-    <x:row r="32" spans="1:162">
+    <x:row r="32" spans="1:163">
       <x:c r="A32" s="0" t="s">
-        <x:v>180</x:v>
+        <x:v>181</x:v>
       </x:c>
     </x:row>
-    <x:row r="33" spans="1:162">
+    <x:row r="33" spans="1:163">
       <x:c r="A33" s="0" t="s">
-        <x:v>181</x:v>
+        <x:v>182</x:v>
       </x:c>
     </x:row>
-    <x:row r="37" spans="1:162">
+    <x:row r="37" spans="1:163">
       <x:c r="A37" s="0" t="s">
-        <x:v>182</x:v>
+        <x:v>183</x:v>
       </x:c>
     </x:row>
-    <x:row r="39" spans="1:162">
+    <x:row r="39" spans="1:163">
       <x:c r="A39" s="0" t="s">
-        <x:v>183</x:v>
+        <x:v>184</x:v>
       </x:c>
     </x:row>
-    <x:row r="40" spans="1:162">
+    <x:row r="40" spans="1:163">
       <x:c r="A40" s="0" t="s">
-        <x:v>184</x:v>
+        <x:v>185</x:v>
       </x:c>
     </x:row>
-    <x:row r="42" spans="1:162">
+    <x:row r="42" spans="1:163">
       <x:c r="A42" s="0" t="s">
-        <x:v>185</x:v>
+        <x:v>186</x:v>
       </x:c>
     </x:row>
-    <x:row r="49" spans="1:162">
+    <x:row r="49" spans="1:163">
       <x:c r="A49" s="0" t="s">
-        <x:v>186</x:v>
+        <x:v>187</x:v>
       </x:c>
     </x:row>
-    <x:row r="50" spans="1:162">
+    <x:row r="50" spans="1:163">
       <x:c r="A50" s="0" t="s">
-        <x:v>187</x:v>
+        <x:v>188</x:v>
       </x:c>
     </x:row>
-    <x:row r="52" spans="1:162">
+    <x:row r="52" spans="1:163">
       <x:c r="A52" s="0" t="s">
-        <x:v>188</x:v>
+        <x:v>189</x:v>
       </x:c>
     </x:row>
-    <x:row r="53" spans="1:162">
+    <x:row r="53" spans="1:163">
       <x:c r="A53" s="0" t="s">
-        <x:v>189</x:v>
+        <x:v>190</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
   <x:mergeCells count="1">
-    <x:mergeCell ref="A14:FF14"/>
+    <x:mergeCell ref="A14:FG14"/>
   </x:mergeCells>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
